--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\tetraloba\projects\uzgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tetraloba\projects\uzgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C4ED0-FC32-40E5-89C7-0D044F16CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FEAD20-4608-4A8E-953F-940C3F5F376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,14 +36,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -70,10 +82,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC00000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -88,7 +105,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -495,7 +512,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1126,7 +1143,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1530,6 +1547,1197 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Repository Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>zip</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22380</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34628</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46424</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109068</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127728</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136608</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145480</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154360</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>163060</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>171768</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>189224</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>197956</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>206700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>216504</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>226304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>236104</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>245912</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>255700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>258904</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>261440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>264000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>266556</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>269204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>271832</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>274460</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>277092</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>279732</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>282368</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>285064</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>287776</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>290480</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>293180</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>295916</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>298628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BCF-472D-B36E-C1B35856B242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>uzgit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22268</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25540</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47480</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54344</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68268</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72552</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76832</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81156</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93424</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97456</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101492</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105576</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110372</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114844</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>119288</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>123700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>130172</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>131840</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>133056</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>134500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>135880</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>137232</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>138588</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>139880</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141208</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>142488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>143972</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>145332</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146640</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>148088</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>149540</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BCF-472D-B36E-C1B35856B242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="697363520"/>
+        <c:axId val="697360640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="697363520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697360640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="697360640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Repository</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> Size (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697363520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Reduction Rate (uzgit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> / zip)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$1:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1.778688524590164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1990291262135921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0900473933649288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79643387815750366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61189189189189186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50722175021240445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51691542288557213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50404502286317265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49591947769314471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50507011866235163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4997319034852547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5312938534942464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52246736744830768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55053401898734178</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55014647596070998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56080343497562035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55067078163380989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54306804306804302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53712245201606901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53047908473364314</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54733703972282655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54091025782080904</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.53763585584979301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53447951897782786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.53109627547435001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52812757767390706</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52575796838559208</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52302220041702441</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.52007358762982625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51760742858409237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51502980594427772</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51269979187294146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.51076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.50979196689206663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50747666855203621</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50523498119472776</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50302547252675756</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.50138443488463047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.50278095355807562</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.50428396572827416</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50458440252704873</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5047473291630139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.50484122546278587</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.50494789769000947</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.50481428550806229</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.5047974489868875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.50461808703535815</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50505149720764464</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50501779161570115</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50481960892316169</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50510948905109487</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50534611173441113</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.50531095543619486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB5E-4546-8378-718784B0FB79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="699036160"/>
+        <c:axId val="699037600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="699036160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699037600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699037600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="C00000">
+                  <a:alpha val="50196"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699036160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1650,6 +2858,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2683,6 +3971,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3303,6 +5623,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632732</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>242207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945F4DED-146E-8A6F-7A2A-361BD3503386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>612323</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>227238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935BF823-13C6-4669-FD87-4AD7971AD2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3576,13 +5973,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>860</v>
       </c>
@@ -3594,7 +5991,7 @@
         <v>2.9069767441860463</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1200</v>
       </c>
@@ -3606,7 +6003,7 @@
         <v>2.1966666666666668</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2716</v>
       </c>
@@ -3618,7 +6015,7 @@
         <v>1.8085419734904271</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3884</v>
       </c>
@@ -3630,7 +6027,7 @@
         <v>1.4284243048403709</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4892</v>
       </c>
@@ -3642,7 +6039,7 @@
         <v>1.1627146361406377</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5904</v>
       </c>
@@ -3654,7 +6051,7 @@
         <v>0.99051490514905149</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>11716</v>
       </c>
@@ -3666,7 +6063,7 @@
         <v>1.1454421304199385</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>15052</v>
       </c>
@@ -3678,7 +6075,7 @@
         <v>0.99627956417751795</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>18384</v>
       </c>
@@ -3690,7 +6087,7 @@
         <v>0.90100087032201914</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>22804</v>
       </c>
@@ -3702,7 +6099,7 @@
         <v>0.87388177512717069</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>26652</v>
       </c>
@@ -3714,7 +6111,7 @@
         <v>0.81794987242983641</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>36592</v>
       </c>
@@ -3726,7 +6123,7 @@
         <v>0.96698731963270657</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>42720</v>
       </c>
@@ -3738,7 +6135,7 @@
         <v>0.89775280898876408</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>48132</v>
       </c>
@@ -3750,7 +6147,7 @@
         <v>0.86902684284883236</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>54300</v>
       </c>
@@ -3762,7 +6159,7 @@
         <v>0.83867403314917122</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>65540</v>
       </c>
@@ -3774,7 +6171,7 @@
         <v>0.86811107720476044</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>74088</v>
       </c>
@@ -3786,7 +6183,7 @@
         <v>0.82507288629737607</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>82676</v>
       </c>
@@ -3798,7 +6195,7 @@
         <v>0.79142677439643916</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>91256</v>
       </c>
@@ -3810,7 +6207,7 @@
         <v>0.76312790391864649</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>100456</v>
       </c>
@@ -3822,7 +6219,7 @@
         <v>0.74189694990841759</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111292</v>
       </c>
@@ -3834,7 +6231,7 @@
         <v>0.75441181756101072</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>121072</v>
       </c>
@@ -3846,7 +6243,7 @@
         <v>0.73212633804678207</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>130888</v>
       </c>
@@ -3858,7 +6255,7 @@
         <v>0.71517633396491653</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>138664</v>
       </c>
@@ -3870,7 +6267,7 @@
         <v>0.68862862747360531</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>147540</v>
       </c>
@@ -3882,7 +6279,7 @@
         <v>0.67634539785820791</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>156408</v>
       </c>
@@ -3894,7 +6291,7 @@
         <v>0.66546468211344689</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>165288</v>
       </c>
@@ -3906,7 +6303,7 @@
         <v>0.65606698610909442</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>173848</v>
       </c>
@@ -3918,7 +6315,7 @@
         <v>0.6449542128756155</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>182564</v>
       </c>
@@ -3930,7 +6327,7 @@
         <v>0.63679586336846261</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>191312</v>
       </c>
@@ -3942,7 +6339,7 @@
         <v>0.63019570126285862</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>200052</v>
       </c>
@@ -3954,7 +6351,7 @@
         <v>0.62311798932277607</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>208788</v>
       </c>
@@ -3966,7 +6363,7 @@
         <v>0.61637642010077209</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>217544</v>
       </c>
@@ -3978,7 +6375,7 @@
         <v>0.61083734784687238</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>228468</v>
       </c>
@@ -3990,7 +6387,7 @@
         <v>0.61323248770068461</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>238268</v>
       </c>
@@ -4002,7 +6399,7 @@
         <v>0.60677892121476662</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>248064</v>
       </c>
@@ -4014,7 +6411,7 @@
         <v>0.6007643188854489</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>257872</v>
       </c>
@@ -4026,7 +6423,7 @@
         <v>0.59507042253521125</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>267644</v>
       </c>
@@ -4038,7 +6435,7 @@
         <v>0.59045597883756029</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>262324</v>
       </c>
@@ -4050,7 +6447,7 @@
         <v>0.5491682042054864</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>264192</v>
       </c>
@@ -4062,7 +6459,7 @@
         <v>0.56666363856589153</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>266740</v>
       </c>
@@ -4074,7 +6471,7 @@
         <v>0.56574941890979979</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>269304</v>
       </c>
@@ -4086,7 +6483,7 @@
         <v>0.56581409856519027</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>272044</v>
       </c>
@@ -4098,7 +6495,7 @@
         <v>0.57245151519607118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>274652</v>
       </c>
@@ -4110,7 +6507,7 @@
         <v>0.57052561059085682</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>277288</v>
       </c>
@@ -4122,7 +6519,7 @@
         <v>0.57003548656992009</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>279916</v>
       </c>
@@ -4134,7 +6531,7 @@
         <v>0.56929936123694247</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>282560</v>
       </c>
@@ -4146,7 +6543,7 @@
         <v>0.56953567383918458</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>285188</v>
       </c>
@@ -4158,7 +6555,7 @@
         <v>0.5680323155251974</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>287968</v>
       </c>
@@ -4170,7 +6567,7 @@
         <v>0.56917435270585626</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>290684</v>
       </c>
@@ -4182,7 +6579,7 @@
         <v>0.56860370711838282</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>293388</v>
       </c>
@@ -4194,7 +6591,7 @@
         <v>0.56779418381119884</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>296112</v>
       </c>
@@ -4206,7 +6603,7 @@
         <v>0.56797428000216132</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>298864</v>
       </c>
@@ -4218,7 +6615,7 @@
         <v>0.56772311151560573</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>301576</v>
       </c>
@@ -4231,8 +6628,674 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD001E67-6EDA-481E-93C5-442B78442ED8}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>488</v>
+      </c>
+      <c r="B1">
+        <v>868</v>
+      </c>
+      <c r="C1">
+        <f>B1/A1</f>
+        <v>1.778688524590164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>824</v>
+      </c>
+      <c r="B2">
+        <v>988</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C54" si="0">B2/A2</f>
+        <v>1.1990291262135921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1688</v>
+      </c>
+      <c r="B3">
+        <v>1840</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.0900473933649288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2692</v>
+      </c>
+      <c r="B4">
+        <v>2144</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.79643387815750366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3700</v>
+      </c>
+      <c r="B5">
+        <v>2264</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.61189189189189186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4708</v>
+      </c>
+      <c r="B6">
+        <v>2388</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.50722175021240445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>8040</v>
+      </c>
+      <c r="B7">
+        <v>4156</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.51691542288557213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>11372</v>
+      </c>
+      <c r="B8">
+        <v>5732</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.50404502286317265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>14704</v>
+      </c>
+      <c r="B9">
+        <v>7292</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.49591947769314471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>18540</v>
+      </c>
+      <c r="B10">
+        <v>9364</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.50507011866235163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>22380</v>
+      </c>
+      <c r="B11">
+        <v>11184</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.4997319034852547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>28504</v>
+      </c>
+      <c r="B12">
+        <v>15144</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.5312938534942464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>34628</v>
+      </c>
+      <c r="B13">
+        <v>18092</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.52246736744830768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>40448</v>
+      </c>
+      <c r="B14">
+        <v>22268</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.55053401898734178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>46424</v>
+      </c>
+      <c r="B15">
+        <v>25540</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.55014647596070998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>54964</v>
+      </c>
+      <c r="B16">
+        <v>30824</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.56080343497562035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>63508</v>
+      </c>
+      <c r="B17">
+        <v>34972</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.55067078163380989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>72072</v>
+      </c>
+      <c r="B18">
+        <v>39140</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.54306804306804302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>80652</v>
+      </c>
+      <c r="B19">
+        <v>43320</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.53712245201606901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>89504</v>
+      </c>
+      <c r="B20">
+        <v>47480</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.53047908473364314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>99288</v>
+      </c>
+      <c r="B21">
+        <v>54344</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.54733703972282655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>109068</v>
+      </c>
+      <c r="B22">
+        <v>58996</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.54091025782080904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>118876</v>
+      </c>
+      <c r="B23">
+        <v>63912</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.53763585584979301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>127728</v>
+      </c>
+      <c r="B24">
+        <v>68268</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.53447951897782786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>136608</v>
+      </c>
+      <c r="B25">
+        <v>72552</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.53109627547435001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>145480</v>
+      </c>
+      <c r="B26">
+        <v>76832</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.52812757767390706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>154360</v>
+      </c>
+      <c r="B27">
+        <v>81156</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.52575796838559208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>163060</v>
+      </c>
+      <c r="B28">
+        <v>85284</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.52302220041702441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>171768</v>
+      </c>
+      <c r="B29">
+        <v>89332</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.52007358762982625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>180492</v>
+      </c>
+      <c r="B30">
+        <v>93424</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.51760742858409237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>189224</v>
+      </c>
+      <c r="B31">
+        <v>97456</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.51502980594427772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>197956</v>
+      </c>
+      <c r="B32">
+        <v>101492</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.51269979187294146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>206700</v>
+      </c>
+      <c r="B33">
+        <v>105576</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.51076923076923075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>216504</v>
+      </c>
+      <c r="B34">
+        <v>110372</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.50979196689206663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>226304</v>
+      </c>
+      <c r="B35">
+        <v>114844</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.50747666855203621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>236104</v>
+      </c>
+      <c r="B36">
+        <v>119288</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.50523498119472776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>245912</v>
+      </c>
+      <c r="B37">
+        <v>123700</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.50302547252675756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>255700</v>
+      </c>
+      <c r="B38">
+        <v>128204</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.50138443488463047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>258904</v>
+      </c>
+      <c r="B39">
+        <v>130172</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.50278095355807562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>261440</v>
+      </c>
+      <c r="B40">
+        <v>131840</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.50428396572827416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>264000</v>
+      </c>
+      <c r="B41">
+        <v>133056</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>266556</v>
+      </c>
+      <c r="B42">
+        <v>134500</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.50458440252704873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>269204</v>
+      </c>
+      <c r="B43">
+        <v>135880</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.5047473291630139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>271832</v>
+      </c>
+      <c r="B44">
+        <v>137232</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.50484122546278587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>274460</v>
+      </c>
+      <c r="B45">
+        <v>138588</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.50494789769000947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>277092</v>
+      </c>
+      <c r="B46">
+        <v>139880</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.50481428550806229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>279732</v>
+      </c>
+      <c r="B47">
+        <v>141208</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.5047974489868875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>282368</v>
+      </c>
+      <c r="B48">
+        <v>142488</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.50461808703535815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>285064</v>
+      </c>
+      <c r="B49">
+        <v>143972</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.50505149720764464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>287776</v>
+      </c>
+      <c r="B50">
+        <v>145332</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.50501779161570115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>290480</v>
+      </c>
+      <c r="B51">
+        <v>146640</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.50481960892316169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>293180</v>
+      </c>
+      <c r="B52">
+        <v>148088</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.50510948905109487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>295916</v>
+      </c>
+      <c r="B53">
+        <v>149540</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.50534611173441113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>298628</v>
+      </c>
+      <c r="B54">
+        <v>150900</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.50531095543619486</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>